--- a/Framework/data/login_data.xlsx
+++ b/Framework/data/login_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Offline_Batch_07\Projects\AutomationBITM07\Framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTWARE TEST QA (PEOPLEnTECH)\projects\Test_Automation\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A852AA6B-D1C3-4606-9FFC-CA30E2FC69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3A9236-6EAC-4A89-B851-1F6A68C34D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
@@ -40,7 +40,10 @@
     <t>dddd@yahoo.com</t>
   </si>
   <si>
-    <t>eeeee@outlook.com</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -85,9 +88,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,11 +428,11 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>334324324</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -437,7 +441,6 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{2B0DE0CB-21CB-41B4-86F5-A7DCA82B4F27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
